--- a/biology/Botanique/Ficus_trichopoda/Ficus_trichopoda.xlsx
+++ b/biology/Botanique/Ficus_trichopoda/Ficus_trichopoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ficus trichopoda est une espèce de plantes à fleurs de la famille des Moraceae et du genre Ficus, présente en Afrique tropicale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ficus trichopoda est une espèce de plantes à fleurs de la famille des Moraceae et du genre Ficus, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre ou arbuste à feuilles persistantes atteignant 5-10-25 m de hauteur, avec fréquemment des racines-échasses ou à colonne, et dont les figues, rouges ou jaunes à maturité, mesurent 1 à 2 cm de diamètre[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre ou arbuste à feuilles persistantes atteignant 5-10-25 m de hauteur, avec fréquemment des racines-échasses ou à colonne, et dont les figues, rouges ou jaunes à maturité, mesurent 1 à 2 cm de diamètre,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans de nombreux pays d'Afrique tropicale continentale et à Madagascar. Toutefois elle n'a pas été observée en Éthiopie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans de nombreux pays d'Afrique tropicale continentale et à Madagascar. Toutefois elle n'a pas été observée en Éthiopie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les forêts marécageuses, le long des cours d'eau, à la lisière des forêts dans les zones de savane, dans les vallées humides, à une altitude comprise entre 0 et 1 200 m[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les forêts marécageuses, le long des cours d'eau, à la lisière des forêts dans les zones de savane, dans les vallées humides, à une altitude comprise entre 0 et 1 200 m.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fibres de l'écorce interne, récoltée à l'état sauvage, sont utilisées pour fabriquer de la corde et de la ficelle. L'espèce est parfois cultivée comme plante ornementale[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres de l'écorce interne, récoltée à l'état sauvage, sont utilisées pour fabriquer de la corde et de la ficelle. L'espèce est parfois cultivée comme plante ornementale.
 </t>
         </is>
       </c>
